--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H2">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I2">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J2">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N2">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O2">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P2">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q2">
-        <v>3791.440219624433</v>
+        <v>2328.387451724944</v>
       </c>
       <c r="R2">
-        <v>15165.76087849773</v>
+        <v>9313.549806899777</v>
       </c>
       <c r="S2">
-        <v>0.235767860964929</v>
+        <v>0.3137660792279566</v>
       </c>
       <c r="T2">
-        <v>0.1544116423488252</v>
+        <v>0.2424898209162436</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H3">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I3">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J3">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P3">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q3">
-        <v>930.5569778106956</v>
+        <v>922.3458906186582</v>
       </c>
       <c r="R3">
-        <v>5583.341866864173</v>
+        <v>5534.075343711949</v>
       </c>
       <c r="S3">
-        <v>0.05786598639451822</v>
+        <v>0.1242923953988142</v>
       </c>
       <c r="T3">
-        <v>0.05684732829196848</v>
+        <v>0.1440865155452913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H4">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I4">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J4">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N4">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O4">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P4">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q4">
-        <v>1451.450629795973</v>
+        <v>756.2298184552085</v>
       </c>
       <c r="R4">
-        <v>8708.703778775838</v>
+        <v>4537.37891073125</v>
       </c>
       <c r="S4">
-        <v>0.09025736671567339</v>
+        <v>0.101907122440544</v>
       </c>
       <c r="T4">
-        <v>0.08866849899478314</v>
+        <v>0.1181362876995887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H5">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I5">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J5">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N5">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O5">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P5">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q5">
-        <v>322.3554899146077</v>
+        <v>616.2096723616875</v>
       </c>
       <c r="R5">
-        <v>1289.421959658431</v>
+        <v>2464.83868944675</v>
       </c>
       <c r="S5">
-        <v>0.02004543390506029</v>
+        <v>0.08303845338800196</v>
       </c>
       <c r="T5">
-        <v>0.01312837279096156</v>
+        <v>0.06417513244505084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H6">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I6">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J6">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N6">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O6">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P6">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q6">
-        <v>1973.414012356519</v>
+        <v>481.0329911161375</v>
       </c>
       <c r="R6">
-        <v>11840.48407413912</v>
+        <v>2886.197946696825</v>
       </c>
       <c r="S6">
-        <v>0.1227152674287985</v>
+        <v>0.06482247423640418</v>
       </c>
       <c r="T6">
-        <v>0.1205550190815112</v>
+        <v>0.07514574332386716</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H7">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I7">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J7">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N7">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O7">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P7">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q7">
-        <v>846.0289315443622</v>
+        <v>1586.499244738858</v>
       </c>
       <c r="R7">
-        <v>5076.173589266174</v>
+        <v>9518.99546843315</v>
       </c>
       <c r="S7">
-        <v>0.05260967335637357</v>
+        <v>0.2137915866841867</v>
       </c>
       <c r="T7">
-        <v>0.05168354605126568</v>
+        <v>0.2478388535306759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H8">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I8">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J8">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N8">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O8">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P8">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q8">
-        <v>71.26245098793365</v>
+        <v>44.15307403555151</v>
       </c>
       <c r="R8">
-        <v>427.5747059276018</v>
+        <v>264.918444213309</v>
       </c>
       <c r="S8">
-        <v>0.004431401964240253</v>
+        <v>0.005949927670213734</v>
       </c>
       <c r="T8">
-        <v>0.004353392691474174</v>
+        <v>0.006897480276221222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H9">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I9">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J9">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P9">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q9">
         <v>17.49039077010244</v>
@@ -1013,10 +1013,10 @@
         <v>157.413516930922</v>
       </c>
       <c r="S9">
-        <v>0.001087626806817032</v>
+        <v>0.002356949369416279</v>
       </c>
       <c r="T9">
-        <v>0.001602720751826596</v>
+        <v>0.004098456154934278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H10">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I10">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J10">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N10">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O10">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P10">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q10">
-        <v>27.2809073533241</v>
+        <v>14.34034148286111</v>
       </c>
       <c r="R10">
-        <v>245.528166179917</v>
+        <v>129.06307334575</v>
       </c>
       <c r="S10">
-        <v>0.001696442723423121</v>
+        <v>0.001932458757469239</v>
       </c>
       <c r="T10">
-        <v>0.002499868465979119</v>
+        <v>0.003360317192841498</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H11">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I11">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J11">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N11">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O11">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P11">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q11">
-        <v>6.058869709148832</v>
+        <v>11.685147703855</v>
       </c>
       <c r="R11">
-        <v>36.35321825489299</v>
+        <v>70.11088622313001</v>
       </c>
       <c r="S11">
-        <v>0.0003767662599023447</v>
+        <v>0.001574653298153602</v>
       </c>
       <c r="T11">
-        <v>0.0003701337625177801</v>
+        <v>0.001825423882087462</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H12">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I12">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J12">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N12">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O12">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P12">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q12">
-        <v>37.09153018068377</v>
+        <v>9.121800263336334</v>
       </c>
       <c r="R12">
-        <v>333.8237716261539</v>
+        <v>82.09620237002702</v>
       </c>
       <c r="S12">
-        <v>0.002306508931712015</v>
+        <v>0.001229224758966657</v>
       </c>
       <c r="T12">
-        <v>0.003398858602930813</v>
+        <v>0.002137476453485376</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H13">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I13">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J13">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N13">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O13">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P13">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q13">
-        <v>15.90163414854688</v>
+        <v>30.08469168583044</v>
       </c>
       <c r="R13">
-        <v>143.114707336922</v>
+        <v>270.762225172474</v>
       </c>
       <c r="S13">
-        <v>0.000988831170182908</v>
+        <v>0.004054117259587445</v>
       </c>
       <c r="T13">
-        <v>0.001457136056753824</v>
+        <v>0.007049630361595959</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H14">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I14">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J14">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N14">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O14">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P14">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q14">
-        <v>8.412495625582997</v>
+        <v>4.495657899207501</v>
       </c>
       <c r="R14">
-        <v>50.47497375349798</v>
+        <v>26.973947395245</v>
       </c>
       <c r="S14">
-        <v>0.0005231247188745058</v>
+        <v>0.0006058205439732648</v>
       </c>
       <c r="T14">
-        <v>0.0005139157644138927</v>
+        <v>0.0007023001765053558</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H15">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I15">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J15">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P15">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q15">
-        <v>2.064731619575333</v>
+        <v>1.780868379912222</v>
       </c>
       <c r="R15">
-        <v>18.582584576178</v>
+        <v>16.02781541921</v>
       </c>
       <c r="S15">
-        <v>0.0001283937842127313</v>
+        <v>0.0002399841524537257</v>
       </c>
       <c r="T15">
-        <v>0.000189200359051014</v>
+        <v>0.0004173040539068717</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H16">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I16">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J16">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N16">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O16">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P16">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q16">
-        <v>3.220497058270333</v>
+        <v>1.460130939305556</v>
       </c>
       <c r="R16">
-        <v>28.984473524433</v>
+        <v>13.14117845375</v>
       </c>
       <c r="S16">
-        <v>0.0002002641895135711</v>
+        <v>0.0001967625962104946</v>
       </c>
       <c r="T16">
-        <v>0.0002951081845071972</v>
+        <v>0.0003421468801849859</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H17">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I17">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J17">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N17">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O17">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P17">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q17">
-        <v>0.7152464477094999</v>
+        <v>1.189779595775</v>
       </c>
       <c r="R17">
-        <v>4.291478686256999</v>
+        <v>7.13867757465</v>
       </c>
       <c r="S17">
-        <v>4.447706287610593E-05</v>
+        <v>0.0001603309099759935</v>
       </c>
       <c r="T17">
-        <v>4.369409997683956E-05</v>
+        <v>0.0001858643248327571</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H18">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I18">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J18">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N18">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O18">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P18">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q18">
-        <v>4.378636028727332</v>
+        <v>0.9287800295816667</v>
       </c>
       <c r="R18">
-        <v>39.407724258546</v>
+        <v>8.359020266234999</v>
       </c>
       <c r="S18">
-        <v>0.0002722821911034311</v>
+        <v>0.000125159439478671</v>
       </c>
       <c r="T18">
-        <v>0.0004012335070256289</v>
+        <v>0.0002176374604120253</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H19">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I19">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J19">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N19">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O19">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P19">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q19">
-        <v>1.877179718908666</v>
+        <v>3.063217788952222</v>
       </c>
       <c r="R19">
-        <v>16.894617470178</v>
+        <v>27.56896010057</v>
       </c>
       <c r="S19">
-        <v>0.0001167310102063757</v>
+        <v>0.0004127894757158352</v>
       </c>
       <c r="T19">
-        <v>0.0001720141608011263</v>
+        <v>0.0007177920702889975</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H20">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I20">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J20">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N20">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O20">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P20">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q20">
-        <v>219.1363206230415</v>
+        <v>197.6282090040585</v>
       </c>
       <c r="R20">
-        <v>876.5452824921658</v>
+        <v>790.5128360162341</v>
       </c>
       <c r="S20">
-        <v>0.0136268274271082</v>
+        <v>0.02663174818181928</v>
       </c>
       <c r="T20">
-        <v>0.008924629482628205</v>
+        <v>0.02058198216705271</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H21">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I21">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J21">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P21">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q21">
-        <v>53.78400302662099</v>
+        <v>78.28661261259532</v>
       </c>
       <c r="R21">
-        <v>322.7040181597259</v>
+        <v>469.719675675572</v>
       </c>
       <c r="S21">
-        <v>0.003344517812013344</v>
+        <v>0.01054965464501811</v>
       </c>
       <c r="T21">
-        <v>0.003285641771344104</v>
+        <v>0.01222973435445881</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H22">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I22">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J22">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N22">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O22">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P22">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q22">
-        <v>83.89043006221848</v>
+        <v>64.18705980658335</v>
       </c>
       <c r="R22">
-        <v>503.342580373311</v>
+        <v>385.1223588395001</v>
       </c>
       <c r="S22">
-        <v>0.005216663353630944</v>
+        <v>0.008649643802951209</v>
       </c>
       <c r="T22">
-        <v>0.005124830539147824</v>
+        <v>0.01002713828369143</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H23">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I23">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J23">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N23">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O23">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P23">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q23">
-        <v>18.63138857547975</v>
+        <v>52.302469603845</v>
       </c>
       <c r="R23">
-        <v>74.52555430191899</v>
+        <v>209.20987841538</v>
       </c>
       <c r="S23">
-        <v>0.001158578897937207</v>
+        <v>0.007048114268688496</v>
       </c>
       <c r="T23">
-        <v>0.0007587890465180387</v>
+        <v>0.005447038669753098</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H24">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I24">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J24">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N24">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O24">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P24">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q24">
-        <v>114.058685007197</v>
+        <v>40.828981635217</v>
       </c>
       <c r="R24">
-        <v>684.3521100431819</v>
+        <v>244.973889811302</v>
       </c>
       <c r="S24">
-        <v>0.007092653617332577</v>
+        <v>0.005501983562513048</v>
       </c>
       <c r="T24">
-        <v>0.006967796347526163</v>
+        <v>0.006378199064924747</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H25">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I25">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J25">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N25">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O25">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P25">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q25">
-        <v>48.89848090962099</v>
+        <v>134.6584324235873</v>
       </c>
       <c r="R25">
-        <v>293.390885457726</v>
+        <v>807.950594541524</v>
       </c>
       <c r="S25">
-        <v>0.003040715290412189</v>
+        <v>0.0181461415904946</v>
       </c>
       <c r="T25">
-        <v>0.002987187312041483</v>
+        <v>0.02103599583849361</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H26">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I26">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J26">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N26">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O26">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P26">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q26">
-        <v>2435.225361063411</v>
+        <v>4.673360063060501</v>
       </c>
       <c r="R26">
-        <v>14611.35216638046</v>
+        <v>28.04016037836301</v>
       </c>
       <c r="S26">
-        <v>0.1514326591182125</v>
+        <v>0.0006297671217566029</v>
       </c>
       <c r="T26">
-        <v>0.1487668771137423</v>
+        <v>0.0007300603539559901</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H27">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I27">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J27">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O27">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P27">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q27">
-        <v>597.6926500251139</v>
+        <v>1.851261673117111</v>
       </c>
       <c r="R27">
-        <v>5379.233850226025</v>
+        <v>16.661355058054</v>
       </c>
       <c r="S27">
-        <v>0.03716706830335829</v>
+        <v>0.0002494701285083034</v>
       </c>
       <c r="T27">
-        <v>0.05476918303317421</v>
+        <v>0.0004337990441900409</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H28">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I28">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J28">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N28">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O28">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P28">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q28">
-        <v>932.2603494354289</v>
+        <v>1.517846280027778</v>
       </c>
       <c r="R28">
-        <v>8390.343144918861</v>
+        <v>13.66061652025</v>
       </c>
       <c r="S28">
-        <v>0.05797190927899708</v>
+        <v>0.0002045401317560936</v>
       </c>
       <c r="T28">
-        <v>0.08542707980540591</v>
+        <v>0.0003556710945108008</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H29">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I29">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J29">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N29">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O29">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P29">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q29">
-        <v>207.0475119863115</v>
+        <v>1.236808620985</v>
       </c>
       <c r="R29">
-        <v>1242.285071917869</v>
+        <v>7.42085172591</v>
       </c>
       <c r="S29">
-        <v>0.01287509394621515</v>
+        <v>0.000166668391669224</v>
       </c>
       <c r="T29">
-        <v>0.01264844406799509</v>
+        <v>0.0001932110788443736</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H30">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I30">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J30">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N30">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O30">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P30">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q30">
-        <v>1267.515132084698</v>
+        <v>0.9654923917543334</v>
       </c>
       <c r="R30">
-        <v>11407.63618876228</v>
+        <v>8.689431525789001</v>
       </c>
       <c r="S30">
-        <v>0.07881947600953887</v>
+        <v>0.0001301066805100469</v>
       </c>
       <c r="T30">
-        <v>0.1161479370100132</v>
+        <v>0.0002262401273670679</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H31">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I31">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J31">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N31">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O31">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P31">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q31">
-        <v>543.4006580471139</v>
+        <v>3.184299161613111</v>
       </c>
       <c r="R31">
-        <v>4890.605922424025</v>
+        <v>28.658692454518</v>
       </c>
       <c r="S31">
-        <v>0.03379096158013371</v>
+        <v>0.0004291060159631213</v>
       </c>
       <c r="T31">
-        <v>0.04979417113407562</v>
+        <v>0.0007461646037305134</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H32">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I32">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J32">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N32">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O32">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P32">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q32">
-        <v>19.82201731809766</v>
+        <v>3.1164175556775</v>
       </c>
       <c r="R32">
-        <v>118.932103908586</v>
+        <v>18.698505334065</v>
       </c>
       <c r="S32">
-        <v>0.001232617251594329</v>
+        <v>0.0004199585068875442</v>
       </c>
       <c r="T32">
-        <v>0.001210918571092822</v>
+        <v>0.0004868387783248626</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H33">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I33">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J33">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O33">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P33">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q33">
-        <v>4.86504216370511</v>
+        <v>1.23450885453</v>
       </c>
       <c r="R33">
-        <v>43.78537947334599</v>
+        <v>11.11057969077</v>
       </c>
       <c r="S33">
-        <v>0.000302528991095253</v>
+        <v>0.0001663584824643831</v>
       </c>
       <c r="T33">
-        <v>0.000445805021555609</v>
+        <v>0.0002892777228178367</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H34">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I34">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J34">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N34">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O34">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P34">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q34">
-        <v>7.588324713986776</v>
+        <v>1.01217169875</v>
       </c>
       <c r="R34">
-        <v>68.294922425881</v>
+        <v>9.109545288750001</v>
       </c>
       <c r="S34">
-        <v>0.0004718742700633138</v>
+        <v>0.0001363970352902438</v>
       </c>
       <c r="T34">
-        <v>0.0006953512731970822</v>
+        <v>0.0002371783102572684</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H35">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I35">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J35">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N35">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O35">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P35">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q35">
-        <v>1.685305776574833</v>
+        <v>0.824762493675</v>
       </c>
       <c r="R35">
-        <v>10.111834659449</v>
+        <v>4.948574962049999</v>
       </c>
       <c r="S35">
-        <v>0.0001047994732867623</v>
+        <v>0.0001111423675398022</v>
       </c>
       <c r="T35">
-        <v>0.0001029546100215157</v>
+        <v>0.000128842286906452</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H36">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I36">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J36">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N36">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O36">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P36">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q36">
-        <v>10.31719991950244</v>
+        <v>0.643835997855</v>
       </c>
       <c r="R36">
-        <v>92.85479927552198</v>
+        <v>5.794523980695</v>
       </c>
       <c r="S36">
-        <v>0.0006415673240944785</v>
+        <v>8.676128904711459E-05</v>
       </c>
       <c r="T36">
-        <v>0.0009454100042176133</v>
+        <v>0.000150867618846324</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H37">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I37">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J37">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N37">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O37">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P37">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q37">
-        <v>4.423121336816221</v>
+        <v>2.12344130901</v>
       </c>
       <c r="R37">
-        <v>39.80809203134599</v>
+        <v>19.11097178109</v>
       </c>
       <c r="S37">
-        <v>0.0002750484765582819</v>
+        <v>0.0002861481896001277</v>
       </c>
       <c r="T37">
-        <v>0.0004053098897298584</v>
+        <v>0.0004975778538596231</v>
       </c>
     </row>
   </sheetData>
